--- a/data/aula10.xlsx
+++ b/data/aula10.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\delineamentos22\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\delineamentos22\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9045" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9045"/>
   </bookViews>
   <sheets>
-    <sheet name="SplitPlot" sheetId="1" r:id="rId1"/>
-    <sheet name="Conjunta" sheetId="2" r:id="rId2"/>
+    <sheet name="Conjunta" sheetId="2" r:id="rId1"/>
+    <sheet name="SplitPlot" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -385,6 +385,705 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>883</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>901</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2">
+        <v>989</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2">
+        <v>700</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2">
+        <v>730</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2">
+        <v>750</v>
+      </c>
+      <c r="C7" s="2">
+        <v>3</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2">
+        <v>785</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2">
+        <v>696</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2">
+        <v>899</v>
+      </c>
+      <c r="C10" s="2">
+        <v>3</v>
+      </c>
+      <c r="D10" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>1</v>
+      </c>
+      <c r="B11" s="2">
+        <v>627</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>1</v>
+      </c>
+      <c r="B12" s="2">
+        <v>735</v>
+      </c>
+      <c r="C12" s="2">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>1</v>
+      </c>
+      <c r="B13" s="2">
+        <v>757</v>
+      </c>
+      <c r="C13" s="2">
+        <v>3</v>
+      </c>
+      <c r="D13" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>2</v>
+      </c>
+      <c r="B14" s="2">
+        <v>844</v>
+      </c>
+      <c r="C14" s="2">
+        <v>4</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>2</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1087</v>
+      </c>
+      <c r="C15" s="2">
+        <v>5</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>2</v>
+      </c>
+      <c r="B16" s="2">
+        <v>940</v>
+      </c>
+      <c r="C16" s="2">
+        <v>6</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>2</v>
+      </c>
+      <c r="B17" s="2">
+        <v>790</v>
+      </c>
+      <c r="C17" s="2">
+        <v>4</v>
+      </c>
+      <c r="D17" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>2</v>
+      </c>
+      <c r="B18" s="2">
+        <v>710</v>
+      </c>
+      <c r="C18" s="2">
+        <v>5</v>
+      </c>
+      <c r="D18" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>2</v>
+      </c>
+      <c r="B19" s="2">
+        <v>750</v>
+      </c>
+      <c r="C19" s="2">
+        <v>6</v>
+      </c>
+      <c r="D19" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>2</v>
+      </c>
+      <c r="B20" s="2">
+        <v>715</v>
+      </c>
+      <c r="C20" s="2">
+        <v>4</v>
+      </c>
+      <c r="D20" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>2</v>
+      </c>
+      <c r="B21" s="2">
+        <v>885</v>
+      </c>
+      <c r="C21" s="2">
+        <v>5</v>
+      </c>
+      <c r="D21" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>2</v>
+      </c>
+      <c r="B22" s="2">
+        <v>832</v>
+      </c>
+      <c r="C22" s="2">
+        <v>6</v>
+      </c>
+      <c r="D22" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>2</v>
+      </c>
+      <c r="B23" s="2">
+        <v>608</v>
+      </c>
+      <c r="C23" s="2">
+        <v>4</v>
+      </c>
+      <c r="D23" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>2</v>
+      </c>
+      <c r="B24" s="2">
+        <v>711</v>
+      </c>
+      <c r="C24" s="2">
+        <v>5</v>
+      </c>
+      <c r="D24" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>2</v>
+      </c>
+      <c r="B25" s="2">
+        <v>766</v>
+      </c>
+      <c r="C25" s="2">
+        <v>6</v>
+      </c>
+      <c r="D25" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>3</v>
+      </c>
+      <c r="B26" s="2">
+        <v>719</v>
+      </c>
+      <c r="C26" s="2">
+        <v>7</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>3</v>
+      </c>
+      <c r="B27" s="2">
+        <v>953</v>
+      </c>
+      <c r="C27" s="2">
+        <v>8</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>3</v>
+      </c>
+      <c r="B28" s="2">
+        <v>897</v>
+      </c>
+      <c r="C28" s="2">
+        <v>9</v>
+      </c>
+      <c r="D28" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>3</v>
+      </c>
+      <c r="B29" s="2">
+        <v>580</v>
+      </c>
+      <c r="C29" s="2">
+        <v>7</v>
+      </c>
+      <c r="D29" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>3</v>
+      </c>
+      <c r="B30" s="2">
+        <v>650</v>
+      </c>
+      <c r="C30" s="2">
+        <v>8</v>
+      </c>
+      <c r="D30" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>3</v>
+      </c>
+      <c r="B31" s="2">
+        <v>670</v>
+      </c>
+      <c r="C31" s="2">
+        <v>9</v>
+      </c>
+      <c r="D31" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>3</v>
+      </c>
+      <c r="B32" s="2">
+        <v>778</v>
+      </c>
+      <c r="C32" s="2">
+        <v>7</v>
+      </c>
+      <c r="D32" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>3</v>
+      </c>
+      <c r="B33" s="2">
+        <v>634</v>
+      </c>
+      <c r="C33" s="2">
+        <v>8</v>
+      </c>
+      <c r="D33" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>3</v>
+      </c>
+      <c r="B34" s="2">
+        <v>766</v>
+      </c>
+      <c r="C34" s="2">
+        <v>9</v>
+      </c>
+      <c r="D34" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>3</v>
+      </c>
+      <c r="B35" s="2">
+        <v>472</v>
+      </c>
+      <c r="C35" s="2">
+        <v>7</v>
+      </c>
+      <c r="D35" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>3</v>
+      </c>
+      <c r="B36" s="2">
+        <v>644</v>
+      </c>
+      <c r="C36" s="2">
+        <v>8</v>
+      </c>
+      <c r="D36" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>3</v>
+      </c>
+      <c r="B37" s="2">
+        <v>706</v>
+      </c>
+      <c r="C37" s="2">
+        <v>9</v>
+      </c>
+      <c r="D37" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>4</v>
+      </c>
+      <c r="B38" s="2">
+        <v>992</v>
+      </c>
+      <c r="C38" s="2">
+        <v>10</v>
+      </c>
+      <c r="D38" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>4</v>
+      </c>
+      <c r="B39" s="2">
+        <v>892</v>
+      </c>
+      <c r="C39" s="2">
+        <v>11</v>
+      </c>
+      <c r="D39" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>4</v>
+      </c>
+      <c r="B40" s="2">
+        <v>799</v>
+      </c>
+      <c r="C40" s="2">
+        <v>12</v>
+      </c>
+      <c r="D40" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>4</v>
+      </c>
+      <c r="B41" s="3">
+        <v>805</v>
+      </c>
+      <c r="C41" s="3">
+        <v>10</v>
+      </c>
+      <c r="D41" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>4</v>
+      </c>
+      <c r="B42" s="1">
+        <v>700</v>
+      </c>
+      <c r="C42" s="1">
+        <v>11</v>
+      </c>
+      <c r="D42" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>4</v>
+      </c>
+      <c r="B43" s="2">
+        <v>750</v>
+      </c>
+      <c r="C43" s="2">
+        <v>12</v>
+      </c>
+      <c r="D43" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>4</v>
+      </c>
+      <c r="B44" s="2">
+        <v>780</v>
+      </c>
+      <c r="C44" s="2">
+        <v>10</v>
+      </c>
+      <c r="D44" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>4</v>
+      </c>
+      <c r="B45" s="2">
+        <v>723</v>
+      </c>
+      <c r="C45" s="2">
+        <v>11</v>
+      </c>
+      <c r="D45" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>4</v>
+      </c>
+      <c r="B46" s="2">
+        <v>635</v>
+      </c>
+      <c r="C46" s="2">
+        <v>12</v>
+      </c>
+      <c r="D46" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>4</v>
+      </c>
+      <c r="B47" s="2">
+        <v>981</v>
+      </c>
+      <c r="C47" s="2">
+        <v>10</v>
+      </c>
+      <c r="D47" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>4</v>
+      </c>
+      <c r="B48" s="2">
+        <v>986</v>
+      </c>
+      <c r="C48" s="2">
+        <v>11</v>
+      </c>
+      <c r="D48" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>4</v>
+      </c>
+      <c r="B49" s="2">
+        <v>995</v>
+      </c>
+      <c r="C49" s="2">
+        <v>12</v>
+      </c>
+      <c r="D49" s="2">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -969,703 +1668,4 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D49"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>883</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2">
-        <v>901</v>
-      </c>
-      <c r="C3" s="2">
-        <v>2</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2">
-        <v>989</v>
-      </c>
-      <c r="C4" s="2">
-        <v>3</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2">
-        <v>700</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>1</v>
-      </c>
-      <c r="B6" s="2">
-        <v>730</v>
-      </c>
-      <c r="C6" s="2">
-        <v>2</v>
-      </c>
-      <c r="D6" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>1</v>
-      </c>
-      <c r="B7" s="2">
-        <v>750</v>
-      </c>
-      <c r="C7" s="2">
-        <v>3</v>
-      </c>
-      <c r="D7" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>1</v>
-      </c>
-      <c r="B8" s="2">
-        <v>785</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1</v>
-      </c>
-      <c r="D8" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>1</v>
-      </c>
-      <c r="B9" s="2">
-        <v>696</v>
-      </c>
-      <c r="C9" s="2">
-        <v>2</v>
-      </c>
-      <c r="D9" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>1</v>
-      </c>
-      <c r="B10" s="2">
-        <v>899</v>
-      </c>
-      <c r="C10" s="2">
-        <v>3</v>
-      </c>
-      <c r="D10" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>1</v>
-      </c>
-      <c r="B11" s="2">
-        <v>627</v>
-      </c>
-      <c r="C11" s="2">
-        <v>1</v>
-      </c>
-      <c r="D11" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>1</v>
-      </c>
-      <c r="B12" s="2">
-        <v>735</v>
-      </c>
-      <c r="C12" s="2">
-        <v>2</v>
-      </c>
-      <c r="D12" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>1</v>
-      </c>
-      <c r="B13" s="2">
-        <v>757</v>
-      </c>
-      <c r="C13" s="2">
-        <v>3</v>
-      </c>
-      <c r="D13" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>2</v>
-      </c>
-      <c r="B14" s="2">
-        <v>844</v>
-      </c>
-      <c r="C14" s="2">
-        <v>4</v>
-      </c>
-      <c r="D14" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>2</v>
-      </c>
-      <c r="B15" s="2">
-        <v>1087</v>
-      </c>
-      <c r="C15" s="2">
-        <v>5</v>
-      </c>
-      <c r="D15" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>2</v>
-      </c>
-      <c r="B16" s="2">
-        <v>940</v>
-      </c>
-      <c r="C16" s="2">
-        <v>6</v>
-      </c>
-      <c r="D16" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>2</v>
-      </c>
-      <c r="B17" s="2">
-        <v>790</v>
-      </c>
-      <c r="C17" s="2">
-        <v>4</v>
-      </c>
-      <c r="D17" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>2</v>
-      </c>
-      <c r="B18" s="2">
-        <v>710</v>
-      </c>
-      <c r="C18" s="2">
-        <v>5</v>
-      </c>
-      <c r="D18" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>2</v>
-      </c>
-      <c r="B19" s="2">
-        <v>750</v>
-      </c>
-      <c r="C19" s="2">
-        <v>6</v>
-      </c>
-      <c r="D19" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>2</v>
-      </c>
-      <c r="B20" s="2">
-        <v>715</v>
-      </c>
-      <c r="C20" s="2">
-        <v>4</v>
-      </c>
-      <c r="D20" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>2</v>
-      </c>
-      <c r="B21" s="2">
-        <v>885</v>
-      </c>
-      <c r="C21" s="2">
-        <v>5</v>
-      </c>
-      <c r="D21" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>2</v>
-      </c>
-      <c r="B22" s="2">
-        <v>832</v>
-      </c>
-      <c r="C22" s="2">
-        <v>6</v>
-      </c>
-      <c r="D22" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>2</v>
-      </c>
-      <c r="B23" s="2">
-        <v>608</v>
-      </c>
-      <c r="C23" s="2">
-        <v>4</v>
-      </c>
-      <c r="D23" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>2</v>
-      </c>
-      <c r="B24" s="2">
-        <v>711</v>
-      </c>
-      <c r="C24" s="2">
-        <v>5</v>
-      </c>
-      <c r="D24" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
-        <v>2</v>
-      </c>
-      <c r="B25" s="2">
-        <v>766</v>
-      </c>
-      <c r="C25" s="2">
-        <v>6</v>
-      </c>
-      <c r="D25" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
-        <v>3</v>
-      </c>
-      <c r="B26" s="2">
-        <v>719</v>
-      </c>
-      <c r="C26" s="2">
-        <v>7</v>
-      </c>
-      <c r="D26" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
-        <v>3</v>
-      </c>
-      <c r="B27" s="2">
-        <v>953</v>
-      </c>
-      <c r="C27" s="2">
-        <v>8</v>
-      </c>
-      <c r="D27" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
-        <v>3</v>
-      </c>
-      <c r="B28" s="2">
-        <v>897</v>
-      </c>
-      <c r="C28" s="2">
-        <v>9</v>
-      </c>
-      <c r="D28" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
-        <v>3</v>
-      </c>
-      <c r="B29" s="2">
-        <v>580</v>
-      </c>
-      <c r="C29" s="2">
-        <v>7</v>
-      </c>
-      <c r="D29" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
-        <v>3</v>
-      </c>
-      <c r="B30" s="2">
-        <v>650</v>
-      </c>
-      <c r="C30" s="2">
-        <v>8</v>
-      </c>
-      <c r="D30" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
-        <v>3</v>
-      </c>
-      <c r="B31" s="2">
-        <v>670</v>
-      </c>
-      <c r="C31" s="2">
-        <v>9</v>
-      </c>
-      <c r="D31" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
-        <v>3</v>
-      </c>
-      <c r="B32" s="2">
-        <v>778</v>
-      </c>
-      <c r="C32" s="2">
-        <v>7</v>
-      </c>
-      <c r="D32" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
-        <v>3</v>
-      </c>
-      <c r="B33" s="2">
-        <v>634</v>
-      </c>
-      <c r="C33" s="2">
-        <v>8</v>
-      </c>
-      <c r="D33" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
-        <v>3</v>
-      </c>
-      <c r="B34" s="2">
-        <v>766</v>
-      </c>
-      <c r="C34" s="2">
-        <v>9</v>
-      </c>
-      <c r="D34" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
-        <v>3</v>
-      </c>
-      <c r="B35" s="2">
-        <v>472</v>
-      </c>
-      <c r="C35" s="2">
-        <v>7</v>
-      </c>
-      <c r="D35" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
-        <v>3</v>
-      </c>
-      <c r="B36" s="2">
-        <v>644</v>
-      </c>
-      <c r="C36" s="2">
-        <v>8</v>
-      </c>
-      <c r="D36" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
-        <v>3</v>
-      </c>
-      <c r="B37" s="2">
-        <v>706</v>
-      </c>
-      <c r="C37" s="2">
-        <v>9</v>
-      </c>
-      <c r="D37" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
-        <v>4</v>
-      </c>
-      <c r="B38" s="2">
-        <v>992</v>
-      </c>
-      <c r="C38" s="2">
-        <v>10</v>
-      </c>
-      <c r="D38" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
-        <v>4</v>
-      </c>
-      <c r="B39" s="2">
-        <v>892</v>
-      </c>
-      <c r="C39" s="2">
-        <v>11</v>
-      </c>
-      <c r="D39" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
-        <v>4</v>
-      </c>
-      <c r="B40" s="2">
-        <v>799</v>
-      </c>
-      <c r="C40" s="2">
-        <v>12</v>
-      </c>
-      <c r="D40" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="3">
-        <v>4</v>
-      </c>
-      <c r="B41" s="3">
-        <v>805</v>
-      </c>
-      <c r="C41" s="3">
-        <v>10</v>
-      </c>
-      <c r="D41" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
-        <v>4</v>
-      </c>
-      <c r="B42" s="1">
-        <v>700</v>
-      </c>
-      <c r="C42" s="1">
-        <v>11</v>
-      </c>
-      <c r="D42" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
-        <v>4</v>
-      </c>
-      <c r="B43" s="2">
-        <v>750</v>
-      </c>
-      <c r="C43" s="2">
-        <v>12</v>
-      </c>
-      <c r="D43" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="2">
-        <v>4</v>
-      </c>
-      <c r="B44" s="2">
-        <v>780</v>
-      </c>
-      <c r="C44" s="2">
-        <v>10</v>
-      </c>
-      <c r="D44" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="2">
-        <v>4</v>
-      </c>
-      <c r="B45" s="2">
-        <v>723</v>
-      </c>
-      <c r="C45" s="2">
-        <v>11</v>
-      </c>
-      <c r="D45" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="2">
-        <v>4</v>
-      </c>
-      <c r="B46" s="2">
-        <v>635</v>
-      </c>
-      <c r="C46" s="2">
-        <v>12</v>
-      </c>
-      <c r="D46" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="2">
-        <v>4</v>
-      </c>
-      <c r="B47" s="2">
-        <v>981</v>
-      </c>
-      <c r="C47" s="2">
-        <v>10</v>
-      </c>
-      <c r="D47" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="2">
-        <v>4</v>
-      </c>
-      <c r="B48" s="2">
-        <v>986</v>
-      </c>
-      <c r="C48" s="2">
-        <v>11</v>
-      </c>
-      <c r="D48" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="2">
-        <v>4</v>
-      </c>
-      <c r="B49" s="2">
-        <v>995</v>
-      </c>
-      <c r="C49" s="2">
-        <v>12</v>
-      </c>
-      <c r="D49" s="2">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
 </file>